--- a/matrix-frontend/public/Данные_приложение_3.xlsx
+++ b/matrix-frontend/public/Данные_приложение_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\Desktop\5 курс\1 курс\Алгоритмизация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7DD8CA-7741-4C78-B6F2-281BE5413600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBC62EC-A668-4829-AB65-0E0D8FA34AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1303,14 +1303,14 @@
   <dimension ref="A1:H289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.140625" style="2" bestFit="1" customWidth="1"/>
@@ -1326,6 +1326,9 @@
       <c r="B1" s="1" t="s">
         <v>220</v>
       </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
         <v>279</v>
@@ -1338,6 +1341,9 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1" t="s">
         <v>234</v>
@@ -1350,6 +1356,9 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1" t="s">
         <v>220</v>
@@ -1362,6 +1371,9 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1" t="s">
         <v>223</v>
@@ -1374,6 +1386,9 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1" t="s">
         <v>260</v>
@@ -1386,6 +1401,9 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1" t="s">
         <v>266</v>
@@ -1398,6 +1416,9 @@
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1" t="s">
         <v>267</v>
@@ -1410,6 +1431,9 @@
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1" t="s">
         <v>242</v>
@@ -1422,6 +1446,9 @@
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1" t="s">
         <v>268</v>
@@ -1434,6 +1461,9 @@
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1" t="s">
         <v>276</v>
@@ -1446,6 +1476,9 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="1" t="s">
         <v>210</v>
@@ -1458,6 +1491,9 @@
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="1" t="s">
         <v>78</v>
@@ -1470,6 +1506,9 @@
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="1" t="s">
         <v>211</v>
@@ -1482,6 +1521,9 @@
       <c r="B14" s="1" t="s">
         <v>221</v>
       </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="1" t="s">
         <v>261</v>
@@ -1494,6 +1536,9 @@
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="1" t="s">
         <v>262</v>
@@ -1506,6 +1551,9 @@
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="1" t="s">
         <v>269</v>
@@ -1518,6 +1566,9 @@
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="1" t="s">
         <v>243</v>
@@ -1530,6 +1581,9 @@
       <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="1" t="s">
         <v>244</v>
@@ -1542,6 +1596,9 @@
       <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="1" t="s">
         <v>245</v>
@@ -1554,6 +1611,9 @@
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="1" t="s">
         <v>246</v>
@@ -1566,6 +1626,9 @@
       <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="1" t="s">
         <v>286</v>
@@ -1578,6 +1641,9 @@
       <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="C22">
+        <v>22</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="1" t="s">
         <v>255</v>
@@ -1590,6 +1656,9 @@
       <c r="B23" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="C23">
+        <v>23</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="1" t="s">
         <v>224</v>
@@ -1602,6 +1671,9 @@
       <c r="B24" s="1" t="s">
         <v>223</v>
       </c>
+      <c r="C24">
+        <v>24</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="1" t="s">
         <v>283</v>
@@ -1614,6 +1686,9 @@
       <c r="B25" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C25">
+        <v>25</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="1" t="s">
         <v>284</v>
@@ -1626,6 +1701,9 @@
       <c r="B26" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C26">
+        <v>26</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="1" t="s">
         <v>281</v>
@@ -1638,6 +1716,9 @@
       <c r="B27" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C27">
+        <v>27</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="F27" s="1" t="s">
         <v>287</v>
@@ -1650,6 +1731,9 @@
       <c r="B28" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="C28">
+        <v>28</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="1" t="s">
         <v>225</v>
@@ -1662,6 +1746,9 @@
       <c r="B29" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="C29">
+        <v>29</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="1" t="s">
         <v>282</v>
@@ -1674,6 +1761,9 @@
       <c r="B30" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="C30">
+        <v>30</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="1" t="s">
         <v>249</v>
@@ -1686,6 +1776,9 @@
       <c r="B31" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="C31">
+        <v>31</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="1" t="s">
         <v>232</v>
@@ -1698,6 +1791,9 @@
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="C32">
+        <v>32</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="1" t="s">
         <v>221</v>
@@ -1710,6 +1806,9 @@
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="C33">
+        <v>33</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="1" t="s">
         <v>248</v>
@@ -1722,6 +1821,9 @@
       <c r="B34" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="C34">
+        <v>34</v>
+      </c>
       <c r="E34" s="3"/>
       <c r="F34" s="1" t="s">
         <v>275</v>
@@ -1734,6 +1836,9 @@
       <c r="B35" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="C35">
+        <v>35</v>
+      </c>
       <c r="E35" s="3"/>
       <c r="F35" s="1" t="s">
         <v>240</v>
@@ -1746,6 +1851,9 @@
       <c r="B36" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="C36">
+        <v>36</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="1" t="s">
         <v>278</v>
@@ -1758,6 +1866,9 @@
       <c r="B37" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="C37">
+        <v>37</v>
+      </c>
       <c r="E37" s="3"/>
       <c r="F37" s="1" t="s">
         <v>226</v>
@@ -1770,6 +1881,9 @@
       <c r="B38" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="C38">
+        <v>38</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="1" t="s">
         <v>227</v>
@@ -1782,6 +1896,9 @@
       <c r="B39" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="C39">
+        <v>39</v>
+      </c>
       <c r="E39" s="3"/>
       <c r="F39" s="1" t="s">
         <v>228</v>
@@ -1794,6 +1911,9 @@
       <c r="B40" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="C40">
+        <v>40</v>
+      </c>
       <c r="E40" s="3"/>
       <c r="F40" s="1" t="s">
         <v>229</v>
@@ -1806,6 +1926,9 @@
       <c r="B41" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="C41">
+        <v>41</v>
+      </c>
       <c r="E41" s="3"/>
       <c r="F41" s="1" t="s">
         <v>270</v>
@@ -1818,6 +1941,9 @@
       <c r="B42" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="C42">
+        <v>42</v>
+      </c>
       <c r="E42" s="3"/>
       <c r="F42" s="1" t="s">
         <v>263</v>
@@ -1831,6 +1957,9 @@
       <c r="B43" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="C43">
+        <v>43</v>
+      </c>
       <c r="E43" s="3"/>
       <c r="F43" s="1" t="s">
         <v>257</v>
@@ -1844,6 +1973,9 @@
       <c r="B44" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="C44">
+        <v>44</v>
+      </c>
       <c r="E44" s="3"/>
       <c r="F44" s="1" t="s">
         <v>280</v>
@@ -1857,6 +1989,9 @@
       <c r="B45" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="C45">
+        <v>45</v>
+      </c>
       <c r="E45" s="3"/>
       <c r="F45" s="1" t="s">
         <v>264</v>
@@ -1870,6 +2005,9 @@
       <c r="B46" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="C46">
+        <v>46</v>
+      </c>
       <c r="E46" s="3"/>
       <c r="F46" s="1" t="s">
         <v>235</v>
@@ -1883,6 +2021,9 @@
       <c r="B47" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="C47">
+        <v>47</v>
+      </c>
       <c r="E47" s="3"/>
       <c r="F47" s="1" t="s">
         <v>271</v>
@@ -1896,6 +2037,9 @@
       <c r="B48" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="C48">
+        <v>48</v>
+      </c>
       <c r="E48" s="3"/>
       <c r="F48" s="1" t="s">
         <v>265</v>
@@ -1909,6 +2053,9 @@
       <c r="B49" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="C49">
+        <v>49</v>
+      </c>
       <c r="E49" s="3"/>
       <c r="F49" s="1" t="s">
         <v>272</v>
@@ -1922,6 +2069,9 @@
       <c r="B50" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="C50">
+        <v>50</v>
+      </c>
       <c r="E50" s="3"/>
       <c r="F50" s="1" t="s">
         <v>273</v>
@@ -1935,6 +2085,9 @@
       <c r="B51" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="C51">
+        <v>51</v>
+      </c>
       <c r="E51" s="3"/>
       <c r="F51" s="1" t="s">
         <v>274</v>
@@ -1948,6 +2101,9 @@
       <c r="B52" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="C52">
+        <v>52</v>
+      </c>
       <c r="E52" s="3"/>
       <c r="F52" s="1" t="s">
         <v>247</v>
@@ -1961,6 +2117,9 @@
       <c r="B53" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="C53">
+        <v>53</v>
+      </c>
       <c r="E53" s="3"/>
       <c r="F53" s="1" t="s">
         <v>233</v>
@@ -1974,6 +2133,9 @@
       <c r="B54" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="C54">
+        <v>54</v>
+      </c>
       <c r="E54" s="3"/>
       <c r="F54" s="1" t="s">
         <v>219</v>
@@ -1987,6 +2149,9 @@
       <c r="B55" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="C55">
+        <v>55</v>
+      </c>
       <c r="E55" s="3"/>
       <c r="F55" s="1" t="s">
         <v>164</v>
@@ -2000,6 +2165,9 @@
       <c r="B56" s="1" t="s">
         <v>224</v>
       </c>
+      <c r="C56">
+        <v>56</v>
+      </c>
       <c r="E56" s="3"/>
       <c r="F56" s="1" t="s">
         <v>0</v>
@@ -2013,6 +2181,9 @@
       <c r="B57" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="C57">
+        <v>57</v>
+      </c>
       <c r="E57" s="3"/>
       <c r="F57" s="1" t="s">
         <v>239</v>
@@ -2027,6 +2198,9 @@
       <c r="B58" s="1" t="s">
         <v>225</v>
       </c>
+      <c r="C58">
+        <v>58</v>
+      </c>
       <c r="E58" s="3"/>
       <c r="F58" s="1" t="s">
         <v>288</v>
@@ -2041,6 +2215,9 @@
       <c r="B59" s="1" t="s">
         <v>226</v>
       </c>
+      <c r="C59">
+        <v>59</v>
+      </c>
       <c r="E59" s="3"/>
       <c r="F59" s="1" t="s">
         <v>12</v>
@@ -2055,6 +2232,9 @@
       <c r="B60" s="1" t="s">
         <v>227</v>
       </c>
+      <c r="C60">
+        <v>60</v>
+      </c>
       <c r="E60" s="3"/>
       <c r="F60" s="1" t="s">
         <v>250</v>
@@ -2069,6 +2249,9 @@
       <c r="B61" s="1" t="s">
         <v>228</v>
       </c>
+      <c r="C61">
+        <v>61</v>
+      </c>
       <c r="E61" s="3"/>
       <c r="F61" s="1" t="s">
         <v>14</v>
@@ -2083,6 +2266,9 @@
       <c r="B62" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="C62">
+        <v>62</v>
+      </c>
       <c r="E62" s="3"/>
       <c r="F62" s="1" t="s">
         <v>254</v>
@@ -2097,6 +2283,9 @@
       <c r="B63" s="1" t="s">
         <v>230</v>
       </c>
+      <c r="C63">
+        <v>63</v>
+      </c>
       <c r="E63" s="3"/>
       <c r="F63" s="1" t="s">
         <v>256</v>
@@ -2111,6 +2300,9 @@
       <c r="B64" s="1" t="s">
         <v>231</v>
       </c>
+      <c r="C64">
+        <v>64</v>
+      </c>
       <c r="E64" s="3"/>
       <c r="F64" s="1" t="s">
         <v>212</v>
@@ -2125,6 +2317,9 @@
       <c r="B65" s="1" t="s">
         <v>232</v>
       </c>
+      <c r="C65">
+        <v>65</v>
+      </c>
       <c r="E65" s="3"/>
       <c r="F65" s="1" t="s">
         <v>83</v>
@@ -2139,6 +2334,9 @@
       <c r="B66" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="C66">
+        <v>66</v>
+      </c>
       <c r="E66" s="3"/>
       <c r="F66" s="1" t="s">
         <v>16</v>
@@ -2153,6 +2351,9 @@
       <c r="B67" s="1" t="s">
         <v>233</v>
       </c>
+      <c r="C67">
+        <v>67</v>
+      </c>
       <c r="E67" s="3"/>
       <c r="F67" s="1" t="s">
         <v>277</v>
@@ -2167,6 +2368,9 @@
       <c r="B68" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C68">
+        <v>68</v>
+      </c>
       <c r="E68" s="3"/>
       <c r="F68" s="1" t="s">
         <v>206</v>
@@ -2181,6 +2385,9 @@
       <c r="B69" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="C69">
+        <v>69</v>
+      </c>
       <c r="E69" s="3"/>
       <c r="F69" s="1" t="s">
         <v>1</v>
@@ -2195,6 +2402,9 @@
       <c r="B70" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="C70">
+        <v>70</v>
+      </c>
       <c r="E70" s="3"/>
       <c r="F70" s="1" t="s">
         <v>2</v>
@@ -2209,6 +2419,9 @@
       <c r="B71" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="C71">
+        <v>71</v>
+      </c>
       <c r="E71" s="3"/>
       <c r="F71" s="1" t="s">
         <v>3</v>
@@ -2223,6 +2436,9 @@
       <c r="B72" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="C72">
+        <v>72</v>
+      </c>
       <c r="E72" s="3"/>
       <c r="F72" s="1" t="s">
         <v>4</v>
@@ -2237,6 +2453,9 @@
       <c r="B73" s="1" t="s">
         <v>235</v>
       </c>
+      <c r="C73">
+        <v>73</v>
+      </c>
       <c r="E73" s="3"/>
       <c r="F73" s="1" t="s">
         <v>5</v>
@@ -2251,6 +2470,9 @@
       <c r="B74" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="C74">
+        <v>74</v>
+      </c>
       <c r="E74" s="3"/>
       <c r="F74" s="1" t="s">
         <v>208</v>
@@ -2265,6 +2487,9 @@
       <c r="B75" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="C75">
+        <v>75</v>
+      </c>
       <c r="E75" s="3"/>
       <c r="F75" s="1" t="s">
         <v>6</v>
@@ -2279,6 +2504,9 @@
       <c r="B76" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="C76">
+        <v>76</v>
+      </c>
       <c r="E76" s="3"/>
       <c r="F76" s="1" t="s">
         <v>7</v>
@@ -2293,6 +2521,9 @@
       <c r="B77" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="C77">
+        <v>77</v>
+      </c>
       <c r="E77" s="3"/>
       <c r="F77" s="1" t="s">
         <v>8</v>
@@ -2307,6 +2538,9 @@
       <c r="B78" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="C78">
+        <v>78</v>
+      </c>
       <c r="E78" s="3"/>
       <c r="F78" s="1" t="s">
         <v>9</v>
@@ -2321,6 +2555,9 @@
       <c r="B79" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="C79">
+        <v>79</v>
+      </c>
       <c r="E79" s="3"/>
       <c r="F79" s="1" t="s">
         <v>10</v>
@@ -2335,6 +2572,9 @@
       <c r="B80" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="C80">
+        <v>80</v>
+      </c>
       <c r="E80" s="3"/>
       <c r="F80" s="1" t="s">
         <v>17</v>
@@ -2349,6 +2589,9 @@
       <c r="B81" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="C81">
+        <v>81</v>
+      </c>
       <c r="E81" s="3"/>
       <c r="F81" s="1" t="s">
         <v>29</v>
@@ -2363,6 +2606,9 @@
       <c r="B82" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="C82">
+        <v>82</v>
+      </c>
       <c r="E82" s="3"/>
       <c r="F82" s="1" t="s">
         <v>48</v>
@@ -2377,6 +2623,9 @@
       <c r="B83" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="C83">
+        <v>83</v>
+      </c>
       <c r="E83" s="3"/>
       <c r="F83" s="1" t="s">
         <v>18</v>
@@ -2391,6 +2640,9 @@
       <c r="B84" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="C84">
+        <v>84</v>
+      </c>
       <c r="E84" s="3"/>
       <c r="F84" s="1" t="s">
         <v>19</v>
@@ -2405,6 +2657,9 @@
       <c r="B85" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="C85">
+        <v>85</v>
+      </c>
       <c r="E85" s="3"/>
       <c r="F85" s="1" t="s">
         <v>20</v>
@@ -2419,6 +2674,9 @@
       <c r="B86" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="C86">
+        <v>86</v>
+      </c>
       <c r="E86" s="3"/>
       <c r="F86" s="1" t="s">
         <v>21</v>
@@ -2433,6 +2691,9 @@
       <c r="B87" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="C87">
+        <v>87</v>
+      </c>
       <c r="E87" s="3"/>
       <c r="F87" s="1" t="s">
         <v>22</v>
@@ -2447,6 +2708,9 @@
       <c r="B88" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="C88">
+        <v>88</v>
+      </c>
       <c r="E88" s="3"/>
       <c r="F88" s="1" t="s">
         <v>23</v>
@@ -2461,6 +2725,9 @@
       <c r="B89" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="C89">
+        <v>89</v>
+      </c>
       <c r="E89" s="3"/>
       <c r="F89" s="1" t="s">
         <v>25</v>
@@ -2475,6 +2742,9 @@
       <c r="B90" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="C90">
+        <v>90</v>
+      </c>
       <c r="E90" s="3"/>
       <c r="F90" s="1" t="s">
         <v>26</v>
@@ -2489,6 +2759,9 @@
       <c r="B91" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="C91">
+        <v>91</v>
+      </c>
       <c r="E91" s="3"/>
       <c r="F91" s="1" t="s">
         <v>27</v>
@@ -2503,6 +2776,9 @@
       <c r="B92" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="C92">
+        <v>92</v>
+      </c>
       <c r="E92" s="3"/>
       <c r="F92" s="1" t="s">
         <v>31</v>
@@ -2517,6 +2793,9 @@
       <c r="B93" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="C93">
+        <v>93</v>
+      </c>
       <c r="E93" s="3"/>
       <c r="F93" s="1" t="s">
         <v>32</v>
@@ -2531,6 +2810,9 @@
       <c r="B94" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C94">
+        <v>94</v>
+      </c>
       <c r="E94" s="3"/>
       <c r="F94" s="1" t="s">
         <v>33</v>
@@ -2545,6 +2827,9 @@
       <c r="B95" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="C95">
+        <v>95</v>
+      </c>
       <c r="E95" s="3"/>
       <c r="F95" s="1" t="s">
         <v>34</v>
@@ -2559,6 +2844,9 @@
       <c r="B96" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="C96">
+        <v>96</v>
+      </c>
       <c r="E96" s="3"/>
       <c r="F96" s="1" t="s">
         <v>35</v>
@@ -2573,6 +2861,9 @@
       <c r="B97" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="C97">
+        <v>97</v>
+      </c>
       <c r="E97" s="3"/>
       <c r="F97" s="1" t="s">
         <v>36</v>
@@ -2587,6 +2878,9 @@
       <c r="B98" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="C98">
+        <v>98</v>
+      </c>
       <c r="E98" s="3"/>
       <c r="F98" s="1" t="s">
         <v>37</v>
@@ -2601,6 +2895,9 @@
       <c r="B99" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="C99">
+        <v>99</v>
+      </c>
       <c r="E99" s="3"/>
       <c r="F99" s="1" t="s">
         <v>38</v>
@@ -2615,6 +2912,9 @@
       <c r="B100" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C100">
+        <v>100</v>
+      </c>
       <c r="E100" s="3"/>
       <c r="F100" s="1" t="s">
         <v>85</v>
@@ -2629,6 +2929,9 @@
       <c r="B101" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="C101">
+        <v>101</v>
+      </c>
       <c r="E101" s="3"/>
       <c r="F101" s="1" t="s">
         <v>28</v>
@@ -2643,6 +2946,9 @@
       <c r="B102" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="C102">
+        <v>102</v>
+      </c>
       <c r="E102" s="3"/>
       <c r="F102" s="1" t="s">
         <v>39</v>
@@ -2657,6 +2963,9 @@
       <c r="B103" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="C103">
+        <v>103</v>
+      </c>
       <c r="E103" s="3"/>
       <c r="F103" s="1" t="s">
         <v>40</v>
@@ -2671,6 +2980,9 @@
       <c r="B104" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="C104">
+        <v>104</v>
+      </c>
       <c r="E104" s="3"/>
       <c r="F104" s="1" t="s">
         <v>41</v>
@@ -2685,6 +2997,9 @@
       <c r="B105" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="C105">
+        <v>105</v>
+      </c>
       <c r="E105" s="3"/>
       <c r="F105" s="1" t="s">
         <v>42</v>
@@ -2699,6 +3014,9 @@
       <c r="B106" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="C106">
+        <v>106</v>
+      </c>
       <c r="E106" s="3"/>
       <c r="F106" s="1" t="s">
         <v>43</v>
@@ -2713,6 +3031,9 @@
       <c r="B107" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="C107">
+        <v>107</v>
+      </c>
       <c r="E107" s="3"/>
       <c r="F107" s="1" t="s">
         <v>44</v>
@@ -2727,6 +3048,9 @@
       <c r="B108" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="C108">
+        <v>108</v>
+      </c>
       <c r="E108" s="3"/>
       <c r="F108" s="1" t="s">
         <v>45</v>
@@ -2741,6 +3065,9 @@
       <c r="B109" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="C109">
+        <v>109</v>
+      </c>
       <c r="E109" s="3"/>
       <c r="F109" s="1" t="s">
         <v>46</v>
@@ -2755,6 +3082,9 @@
       <c r="B110" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="C110">
+        <v>110</v>
+      </c>
       <c r="E110" s="3"/>
       <c r="F110" s="1" t="s">
         <v>47</v>
@@ -2769,6 +3099,9 @@
       <c r="B111" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="C111">
+        <v>111</v>
+      </c>
       <c r="E111" s="3"/>
       <c r="F111" s="1" t="s">
         <v>57</v>
@@ -2783,6 +3116,9 @@
       <c r="B112" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="C112">
+        <v>112</v>
+      </c>
       <c r="E112" s="3"/>
       <c r="F112" s="1" t="s">
         <v>84</v>
@@ -2797,6 +3133,9 @@
       <c r="B113" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="C113">
+        <v>113</v>
+      </c>
       <c r="E113" s="3"/>
       <c r="F113" s="1" t="s">
         <v>86</v>
@@ -2811,6 +3150,9 @@
       <c r="B114" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="C114">
+        <v>114</v>
+      </c>
       <c r="E114" s="3"/>
       <c r="F114" s="1" t="s">
         <v>87</v>
@@ -2825,6 +3167,9 @@
       <c r="B115" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="C115">
+        <v>115</v>
+      </c>
       <c r="E115" s="3"/>
       <c r="F115" s="1" t="s">
         <v>88</v>
@@ -2839,6 +3184,9 @@
       <c r="B116" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="C116">
+        <v>116</v>
+      </c>
       <c r="E116" s="3"/>
       <c r="F116" s="1" t="s">
         <v>89</v>
@@ -2853,6 +3201,9 @@
       <c r="B117" s="1" t="s">
         <v>119</v>
       </c>
+      <c r="C117">
+        <v>117</v>
+      </c>
       <c r="E117" s="3"/>
       <c r="F117" s="1" t="s">
         <v>90</v>
@@ -2867,6 +3218,9 @@
       <c r="B118" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="C118">
+        <v>118</v>
+      </c>
       <c r="E118" s="3"/>
       <c r="F118" s="1" t="s">
         <v>91</v>
@@ -2881,6 +3235,9 @@
       <c r="B119" s="1" t="s">
         <v>121</v>
       </c>
+      <c r="C119">
+        <v>119</v>
+      </c>
       <c r="E119" s="3"/>
       <c r="F119" s="1" t="s">
         <v>258</v>
@@ -2895,6 +3252,9 @@
       <c r="B120" s="1" t="s">
         <v>122</v>
       </c>
+      <c r="C120">
+        <v>120</v>
+      </c>
       <c r="E120" s="3"/>
       <c r="F120" s="1" t="s">
         <v>198</v>
@@ -2909,6 +3269,9 @@
       <c r="B121" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="C121">
+        <v>121</v>
+      </c>
       <c r="E121" s="3"/>
       <c r="F121" s="1" t="s">
         <v>199</v>
@@ -2923,6 +3286,9 @@
       <c r="B122" s="1" t="s">
         <v>124</v>
       </c>
+      <c r="C122">
+        <v>122</v>
+      </c>
       <c r="E122" s="3"/>
       <c r="F122" s="1" t="s">
         <v>200</v>
@@ -2937,6 +3303,9 @@
       <c r="B123" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="C123">
+        <v>123</v>
+      </c>
       <c r="E123" s="3"/>
       <c r="F123" s="1" t="s">
         <v>201</v>
@@ -2951,6 +3320,9 @@
       <c r="B124" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="C124">
+        <v>124</v>
+      </c>
       <c r="E124" s="3"/>
       <c r="F124" s="1" t="s">
         <v>92</v>
@@ -2963,6 +3335,9 @@
       <c r="B125" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="C125">
+        <v>125</v>
+      </c>
       <c r="E125" s="3"/>
       <c r="F125" s="1" t="s">
         <v>93</v>
@@ -2975,6 +3350,9 @@
       <c r="B126" s="1" t="s">
         <v>128</v>
       </c>
+      <c r="C126">
+        <v>126</v>
+      </c>
       <c r="E126" s="3"/>
       <c r="F126" s="1" t="s">
         <v>94</v>
@@ -2987,6 +3365,9 @@
       <c r="B127" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="C127">
+        <v>127</v>
+      </c>
       <c r="E127" s="3"/>
       <c r="F127" s="1" t="s">
         <v>95</v>
@@ -2999,6 +3380,9 @@
       <c r="B128" s="1" t="s">
         <v>130</v>
       </c>
+      <c r="C128">
+        <v>128</v>
+      </c>
       <c r="E128" s="3"/>
       <c r="F128" s="1" t="s">
         <v>96</v>
@@ -3011,6 +3395,9 @@
       <c r="B129" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="C129">
+        <v>129</v>
+      </c>
       <c r="E129" s="3"/>
       <c r="F129" s="1" t="s">
         <v>49</v>
@@ -3023,6 +3410,9 @@
       <c r="B130" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="C130">
+        <v>130</v>
+      </c>
       <c r="E130" s="3"/>
       <c r="F130" s="1" t="s">
         <v>50</v>
@@ -3035,6 +3425,9 @@
       <c r="B131" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="C131">
+        <v>131</v>
+      </c>
       <c r="E131" s="3"/>
       <c r="F131" s="1" t="s">
         <v>51</v>
@@ -3047,6 +3440,9 @@
       <c r="B132" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="C132">
+        <v>132</v>
+      </c>
       <c r="E132" s="3"/>
       <c r="F132" s="1" t="s">
         <v>52</v>
@@ -3059,6 +3455,9 @@
       <c r="B133" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="C133">
+        <v>133</v>
+      </c>
       <c r="E133" s="3"/>
       <c r="F133" s="1" t="s">
         <v>53</v>
@@ -3071,6 +3470,9 @@
       <c r="B134" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="C134">
+        <v>134</v>
+      </c>
       <c r="E134" s="3"/>
       <c r="F134" s="1" t="s">
         <v>54</v>
@@ -3083,6 +3485,9 @@
       <c r="B135" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="C135">
+        <v>135</v>
+      </c>
       <c r="E135" s="3"/>
       <c r="F135" s="1" t="s">
         <v>55</v>
@@ -3095,6 +3500,9 @@
       <c r="B136" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="C136">
+        <v>136</v>
+      </c>
       <c r="E136" s="3"/>
       <c r="F136" s="1" t="s">
         <v>56</v>
@@ -3107,6 +3515,9 @@
       <c r="B137" s="1" t="s">
         <v>139</v>
       </c>
+      <c r="C137">
+        <v>137</v>
+      </c>
       <c r="E137" s="3"/>
       <c r="F137" s="1" t="s">
         <v>13</v>
@@ -3119,6 +3530,9 @@
       <c r="B138" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="C138">
+        <v>138</v>
+      </c>
       <c r="E138" s="3"/>
       <c r="F138" s="1" t="s">
         <v>170</v>
@@ -3131,6 +3545,9 @@
       <c r="B139" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="C139">
+        <v>139</v>
+      </c>
       <c r="E139" s="3"/>
       <c r="F139" s="1" t="s">
         <v>171</v>
@@ -3143,6 +3560,9 @@
       <c r="B140" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="C140">
+        <v>140</v>
+      </c>
       <c r="E140" s="3"/>
       <c r="F140" s="1" t="s">
         <v>172</v>
@@ -3155,6 +3575,9 @@
       <c r="B141" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="C141">
+        <v>141</v>
+      </c>
       <c r="E141" s="3"/>
       <c r="F141" s="1" t="s">
         <v>173</v>
@@ -3167,6 +3590,9 @@
       <c r="B142" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="C142">
+        <v>142</v>
+      </c>
       <c r="E142" s="3"/>
       <c r="F142" s="1" t="s">
         <v>174</v>
@@ -3179,6 +3605,9 @@
       <c r="B143" s="1" t="s">
         <v>236</v>
       </c>
+      <c r="C143">
+        <v>143</v>
+      </c>
       <c r="E143" s="3"/>
       <c r="F143" s="1" t="s">
         <v>175</v>
@@ -3191,6 +3620,9 @@
       <c r="B144" s="1" t="s">
         <v>237</v>
       </c>
+      <c r="C144">
+        <v>144</v>
+      </c>
       <c r="E144" s="3"/>
       <c r="F144" s="1" t="s">
         <v>176</v>
@@ -3203,6 +3635,9 @@
       <c r="B145" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="C145">
+        <v>145</v>
+      </c>
       <c r="E145" s="3"/>
       <c r="F145" s="1" t="s">
         <v>177</v>
@@ -3215,6 +3650,9 @@
       <c r="B146" s="1" t="s">
         <v>149</v>
       </c>
+      <c r="C146">
+        <v>146</v>
+      </c>
       <c r="E146" s="3"/>
       <c r="F146" s="1" t="s">
         <v>178</v>
@@ -3227,6 +3665,9 @@
       <c r="B147" s="1" t="s">
         <v>150</v>
       </c>
+      <c r="C147">
+        <v>147</v>
+      </c>
       <c r="E147" s="3"/>
       <c r="F147" s="1" t="s">
         <v>179</v>
@@ -3239,6 +3680,9 @@
       <c r="B148" s="1" t="s">
         <v>151</v>
       </c>
+      <c r="C148">
+        <v>148</v>
+      </c>
       <c r="E148" s="3"/>
       <c r="F148" s="1" t="s">
         <v>180</v>
@@ -3251,6 +3695,9 @@
       <c r="B149" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="C149">
+        <v>149</v>
+      </c>
       <c r="E149" s="3"/>
       <c r="F149" s="1" t="s">
         <v>181</v>
@@ -3263,6 +3710,9 @@
       <c r="B150" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="C150">
+        <v>150</v>
+      </c>
       <c r="E150" s="3"/>
       <c r="F150" s="1" t="s">
         <v>182</v>
@@ -3275,6 +3725,9 @@
       <c r="B151" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="C151">
+        <v>151</v>
+      </c>
       <c r="E151" s="3"/>
       <c r="F151" s="1" t="s">
         <v>183</v>
@@ -3287,6 +3740,9 @@
       <c r="B152" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="C152">
+        <v>152</v>
+      </c>
       <c r="E152" s="3"/>
       <c r="F152" s="1" t="s">
         <v>184</v>
@@ -3299,6 +3755,9 @@
       <c r="B153" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="C153">
+        <v>153</v>
+      </c>
       <c r="E153" s="3"/>
       <c r="F153" s="1" t="s">
         <v>15</v>
@@ -3311,6 +3770,9 @@
       <c r="B154" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="C154">
+        <v>154</v>
+      </c>
       <c r="E154" s="3"/>
       <c r="F154" s="1" t="s">
         <v>185</v>
@@ -3323,6 +3785,9 @@
       <c r="B155" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="C155">
+        <v>155</v>
+      </c>
       <c r="E155" s="3"/>
       <c r="F155" s="1" t="s">
         <v>186</v>
@@ -3335,6 +3800,9 @@
       <c r="B156" s="1" t="s">
         <v>160</v>
       </c>
+      <c r="C156">
+        <v>156</v>
+      </c>
       <c r="E156" s="3"/>
       <c r="F156" s="1" t="s">
         <v>187</v>
@@ -3347,6 +3815,9 @@
       <c r="B157" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="C157">
+        <v>157</v>
+      </c>
       <c r="E157" s="3"/>
       <c r="F157" s="1" t="s">
         <v>82</v>
@@ -3359,6 +3830,9 @@
       <c r="B158" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="C158">
+        <v>158</v>
+      </c>
       <c r="E158" s="3"/>
       <c r="F158" s="1" t="s">
         <v>188</v>
@@ -3371,6 +3845,9 @@
       <c r="B159" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="C159">
+        <v>159</v>
+      </c>
       <c r="E159" s="3"/>
       <c r="F159" s="1" t="s">
         <v>189</v>
@@ -3383,6 +3860,9 @@
       <c r="B160" s="1" t="s">
         <v>239</v>
       </c>
+      <c r="C160">
+        <v>160</v>
+      </c>
       <c r="E160" s="3"/>
       <c r="F160" s="1" t="s">
         <v>190</v>
@@ -3395,6 +3875,9 @@
       <c r="B161" s="1" t="s">
         <v>240</v>
       </c>
+      <c r="C161">
+        <v>161</v>
+      </c>
       <c r="E161" s="3"/>
       <c r="F161" s="1" t="s">
         <v>191</v>
@@ -3407,6 +3890,9 @@
       <c r="B162" s="1" t="s">
         <v>242</v>
       </c>
+      <c r="C162">
+        <v>162</v>
+      </c>
       <c r="E162" s="3"/>
       <c r="F162" s="1" t="s">
         <v>192</v>
@@ -3419,6 +3905,9 @@
       <c r="B163" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="C163">
+        <v>163</v>
+      </c>
       <c r="E163" s="3"/>
       <c r="F163" s="1" t="s">
         <v>251</v>
@@ -3431,6 +3920,9 @@
       <c r="B164" s="1" t="s">
         <v>243</v>
       </c>
+      <c r="C164">
+        <v>164</v>
+      </c>
       <c r="E164" s="3"/>
       <c r="F164" s="1" t="s">
         <v>193</v>
@@ -3443,6 +3935,9 @@
       <c r="B165" s="1" t="s">
         <v>244</v>
       </c>
+      <c r="C165">
+        <v>165</v>
+      </c>
       <c r="E165" s="3"/>
       <c r="F165" s="1" t="s">
         <v>252</v>
@@ -3455,6 +3950,9 @@
       <c r="B166" s="1" t="s">
         <v>245</v>
       </c>
+      <c r="C166">
+        <v>166</v>
+      </c>
       <c r="E166" s="3"/>
       <c r="F166" s="1" t="s">
         <v>194</v>
@@ -3467,6 +3965,9 @@
       <c r="B167" s="1" t="s">
         <v>246</v>
       </c>
+      <c r="C167">
+        <v>167</v>
+      </c>
       <c r="E167" s="3"/>
       <c r="F167" s="1" t="s">
         <v>195</v>
@@ -3479,6 +3980,9 @@
       <c r="B168" s="1" t="s">
         <v>247</v>
       </c>
+      <c r="C168">
+        <v>168</v>
+      </c>
       <c r="E168" s="3"/>
       <c r="F168" s="1" t="s">
         <v>196</v>
@@ -3491,6 +3995,9 @@
       <c r="B169" s="1" t="s">
         <v>248</v>
       </c>
+      <c r="C169">
+        <v>169</v>
+      </c>
       <c r="E169" s="3"/>
       <c r="F169" s="1" t="s">
         <v>98</v>
@@ -3503,6 +4010,9 @@
       <c r="B170" s="1" t="s">
         <v>249</v>
       </c>
+      <c r="C170">
+        <v>170</v>
+      </c>
       <c r="E170" s="3"/>
       <c r="F170" s="1" t="s">
         <v>99</v>
@@ -3515,6 +4025,9 @@
       <c r="B171" s="1" t="s">
         <v>170</v>
       </c>
+      <c r="C171">
+        <v>171</v>
+      </c>
       <c r="E171" s="3"/>
       <c r="F171" s="1" t="s">
         <v>100</v>
@@ -3527,6 +4040,9 @@
       <c r="B172" s="1" t="s">
         <v>171</v>
       </c>
+      <c r="C172">
+        <v>172</v>
+      </c>
       <c r="E172" s="3"/>
       <c r="F172" s="1" t="s">
         <v>101</v>
@@ -3539,6 +4055,9 @@
       <c r="B173" s="1" t="s">
         <v>172</v>
       </c>
+      <c r="C173">
+        <v>173</v>
+      </c>
       <c r="E173" s="3"/>
       <c r="F173" s="1" t="s">
         <v>102</v>
@@ -3551,6 +4070,9 @@
       <c r="B174" s="1" t="s">
         <v>173</v>
       </c>
+      <c r="C174">
+        <v>174</v>
+      </c>
       <c r="E174" s="3"/>
       <c r="F174" s="1" t="s">
         <v>66</v>
@@ -3563,6 +4085,9 @@
       <c r="B175" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="C175">
+        <v>175</v>
+      </c>
       <c r="E175" s="3"/>
       <c r="F175" s="1" t="s">
         <v>103</v>
@@ -3575,6 +4100,9 @@
       <c r="B176" s="1" t="s">
         <v>175</v>
       </c>
+      <c r="C176">
+        <v>176</v>
+      </c>
       <c r="E176" s="3"/>
       <c r="F176" s="1" t="s">
         <v>104</v>
@@ -3587,6 +4115,9 @@
       <c r="B177" s="1" t="s">
         <v>176</v>
       </c>
+      <c r="C177">
+        <v>177</v>
+      </c>
       <c r="E177" s="3"/>
       <c r="F177" s="1" t="s">
         <v>105</v>
@@ -3599,6 +4130,9 @@
       <c r="B178" s="1" t="s">
         <v>250</v>
       </c>
+      <c r="C178">
+        <v>178</v>
+      </c>
       <c r="E178" s="3"/>
       <c r="F178" s="1" t="s">
         <v>106</v>
@@ -3611,6 +4145,9 @@
       <c r="B179" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C179">
+        <v>179</v>
+      </c>
       <c r="E179" s="3"/>
       <c r="F179" s="1" t="s">
         <v>107</v>
@@ -3623,6 +4160,9 @@
       <c r="B180" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="C180">
+        <v>180</v>
+      </c>
       <c r="E180" s="3"/>
       <c r="F180" s="1" t="s">
         <v>108</v>
@@ -3635,6 +4175,9 @@
       <c r="B181" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="C181">
+        <v>181</v>
+      </c>
       <c r="E181" s="3"/>
       <c r="F181" s="1" t="s">
         <v>109</v>
@@ -3647,6 +4190,9 @@
       <c r="B182" s="1" t="s">
         <v>180</v>
       </c>
+      <c r="C182">
+        <v>182</v>
+      </c>
       <c r="E182" s="3"/>
       <c r="F182" s="1" t="s">
         <v>110</v>
@@ -3659,6 +4205,9 @@
       <c r="B183" s="1" t="s">
         <v>181</v>
       </c>
+      <c r="C183">
+        <v>183</v>
+      </c>
       <c r="E183" s="3"/>
       <c r="F183" s="1" t="s">
         <v>111</v>
@@ -3671,6 +4220,9 @@
       <c r="B184" s="1" t="s">
         <v>182</v>
       </c>
+      <c r="C184">
+        <v>184</v>
+      </c>
       <c r="E184" s="3"/>
       <c r="F184" s="1" t="s">
         <v>58</v>
@@ -3683,6 +4235,9 @@
       <c r="B185" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="C185">
+        <v>185</v>
+      </c>
       <c r="E185" s="3"/>
       <c r="F185" s="1" t="s">
         <v>112</v>
@@ -3695,6 +4250,9 @@
       <c r="B186" s="1" t="s">
         <v>184</v>
       </c>
+      <c r="C186">
+        <v>186</v>
+      </c>
       <c r="E186" s="3"/>
       <c r="F186" s="1" t="s">
         <v>113</v>
@@ -3707,6 +4265,9 @@
       <c r="B187" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C187">
+        <v>187</v>
+      </c>
       <c r="E187" s="3"/>
       <c r="F187" s="1" t="s">
         <v>114</v>
@@ -3719,6 +4280,9 @@
       <c r="B188" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="C188">
+        <v>188</v>
+      </c>
       <c r="E188" s="3"/>
       <c r="F188" s="1" t="s">
         <v>115</v>
@@ -3731,6 +4295,9 @@
       <c r="B189" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="C189">
+        <v>189</v>
+      </c>
       <c r="E189" s="3"/>
       <c r="F189" s="1" t="s">
         <v>116</v>
@@ -3743,6 +4310,9 @@
       <c r="B190" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="C190">
+        <v>190</v>
+      </c>
       <c r="E190" s="3"/>
       <c r="F190" s="1" t="s">
         <v>117</v>
@@ -3755,6 +4325,9 @@
       <c r="B191" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="C191">
+        <v>191</v>
+      </c>
       <c r="E191" s="3"/>
       <c r="F191" s="1" t="s">
         <v>118</v>
@@ -3767,6 +4340,9 @@
       <c r="B192" s="1" t="s">
         <v>190</v>
       </c>
+      <c r="C192">
+        <v>192</v>
+      </c>
       <c r="E192" s="3"/>
       <c r="F192" s="1" t="s">
         <v>119</v>
@@ -3779,6 +4355,9 @@
       <c r="B193" s="1" t="s">
         <v>191</v>
       </c>
+      <c r="C193">
+        <v>193</v>
+      </c>
       <c r="E193" s="3"/>
       <c r="F193" s="1" t="s">
         <v>120</v>
@@ -3791,6 +4370,9 @@
       <c r="B194" s="1" t="s">
         <v>251</v>
       </c>
+      <c r="C194">
+        <v>194</v>
+      </c>
       <c r="E194" s="3"/>
       <c r="F194" s="1" t="s">
         <v>121</v>
@@ -3803,6 +4385,9 @@
       <c r="B195" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C195">
+        <v>195</v>
+      </c>
       <c r="E195" s="3"/>
       <c r="F195" s="1" t="s">
         <v>59</v>
@@ -3815,6 +4400,9 @@
       <c r="B196" s="1" t="s">
         <v>252</v>
       </c>
+      <c r="C196">
+        <v>196</v>
+      </c>
       <c r="E196" s="3"/>
       <c r="F196" s="1" t="s">
         <v>122</v>
@@ -3827,6 +4415,9 @@
       <c r="B197" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="C197">
+        <v>197</v>
+      </c>
       <c r="E197" s="3"/>
       <c r="F197" s="1" t="s">
         <v>123</v>
@@ -3839,6 +4430,9 @@
       <c r="B198" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="C198">
+        <v>198</v>
+      </c>
       <c r="E198" s="3"/>
       <c r="F198" s="1" t="s">
         <v>124</v>
@@ -3851,6 +4445,9 @@
       <c r="B199" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="C199">
+        <v>199</v>
+      </c>
       <c r="E199" s="3"/>
       <c r="F199" s="1" t="s">
         <v>125</v>
@@ -3863,6 +4460,9 @@
       <c r="B200" s="1" t="s">
         <v>253</v>
       </c>
+      <c r="C200">
+        <v>200</v>
+      </c>
       <c r="E200" s="3"/>
       <c r="F200" s="1" t="s">
         <v>126</v>
@@ -3875,6 +4475,9 @@
       <c r="B201" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="C201">
+        <v>201</v>
+      </c>
       <c r="E201" s="3"/>
       <c r="F201" s="1" t="s">
         <v>127</v>
@@ -3887,6 +4490,9 @@
       <c r="B202" s="1" t="s">
         <v>200</v>
       </c>
+      <c r="C202">
+        <v>202</v>
+      </c>
       <c r="E202" s="3"/>
       <c r="F202" s="1" t="s">
         <v>128</v>
@@ -3899,6 +4505,9 @@
       <c r="B203" s="1" t="s">
         <v>201</v>
       </c>
+      <c r="C203">
+        <v>203</v>
+      </c>
       <c r="E203" s="3"/>
       <c r="F203" s="1" t="s">
         <v>129</v>
@@ -3911,6 +4520,9 @@
       <c r="B204" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="C204">
+        <v>204</v>
+      </c>
       <c r="E204" s="3"/>
       <c r="F204" s="1" t="s">
         <v>130</v>
@@ -3923,6 +4535,9 @@
       <c r="B205" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="C205">
+        <v>205</v>
+      </c>
       <c r="E205" s="3"/>
       <c r="F205" s="1" t="s">
         <v>131</v>
@@ -3935,6 +4550,9 @@
       <c r="B206" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="C206">
+        <v>206</v>
+      </c>
       <c r="E206" s="3"/>
       <c r="F206" s="1" t="s">
         <v>60</v>
@@ -3947,6 +4565,9 @@
       <c r="B207" s="1" t="s">
         <v>255</v>
       </c>
+      <c r="C207">
+        <v>207</v>
+      </c>
       <c r="E207" s="3"/>
       <c r="F207" s="1" t="s">
         <v>132</v>
@@ -3959,6 +4580,9 @@
       <c r="B208" s="1" t="s">
         <v>205</v>
       </c>
+      <c r="C208">
+        <v>208</v>
+      </c>
       <c r="E208" s="3"/>
       <c r="F208" s="1" t="s">
         <v>133</v>
@@ -3971,6 +4595,9 @@
       <c r="B209" s="1" t="s">
         <v>257</v>
       </c>
+      <c r="C209">
+        <v>209</v>
+      </c>
       <c r="E209" s="3"/>
       <c r="F209" s="1" t="s">
         <v>134</v>
@@ -3983,6 +4610,9 @@
       <c r="B210" s="1" t="s">
         <v>208</v>
       </c>
+      <c r="C210">
+        <v>210</v>
+      </c>
       <c r="E210" s="3"/>
       <c r="F210" s="1" t="s">
         <v>135</v>
@@ -3995,6 +4625,9 @@
       <c r="B211" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="C211">
+        <v>211</v>
+      </c>
       <c r="E211" s="3"/>
       <c r="F211" s="1" t="s">
         <v>136</v>
@@ -4007,6 +4640,9 @@
       <c r="B212" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="C212">
+        <v>212</v>
+      </c>
       <c r="E212" s="3"/>
       <c r="F212" s="1" t="s">
         <v>137</v>
@@ -4019,6 +4655,9 @@
       <c r="B213" s="1" t="s">
         <v>260</v>
       </c>
+      <c r="C213">
+        <v>213</v>
+      </c>
       <c r="E213" s="3"/>
       <c r="F213" s="1" t="s">
         <v>138</v>
@@ -4031,6 +4670,9 @@
       <c r="B214" s="1" t="s">
         <v>261</v>
       </c>
+      <c r="C214">
+        <v>214</v>
+      </c>
       <c r="E214" s="3"/>
       <c r="F214" s="1" t="s">
         <v>139</v>
@@ -4043,6 +4685,9 @@
       <c r="B215" s="1" t="s">
         <v>262</v>
       </c>
+      <c r="C215">
+        <v>215</v>
+      </c>
       <c r="E215" s="3"/>
       <c r="F215" s="1" t="s">
         <v>140</v>
@@ -4055,6 +4700,9 @@
       <c r="B216" s="1" t="s">
         <v>263</v>
       </c>
+      <c r="C216">
+        <v>216</v>
+      </c>
       <c r="E216" s="3"/>
       <c r="F216" s="1" t="s">
         <v>141</v>
@@ -4067,6 +4715,9 @@
       <c r="B217" s="1" t="s">
         <v>264</v>
       </c>
+      <c r="C217">
+        <v>217</v>
+      </c>
       <c r="E217" s="3"/>
       <c r="F217" s="1" t="s">
         <v>142</v>
@@ -4079,6 +4730,9 @@
       <c r="B218" s="1" t="s">
         <v>265</v>
       </c>
+      <c r="C218">
+        <v>218</v>
+      </c>
       <c r="E218" s="3"/>
       <c r="F218" s="1" t="s">
         <v>61</v>
@@ -4091,6 +4745,9 @@
       <c r="B219" s="1" t="s">
         <v>266</v>
       </c>
+      <c r="C219">
+        <v>219</v>
+      </c>
       <c r="E219" s="3"/>
       <c r="F219" s="1" t="s">
         <v>143</v>
@@ -4103,6 +4760,9 @@
       <c r="B220" s="1" t="s">
         <v>267</v>
       </c>
+      <c r="C220">
+        <v>220</v>
+      </c>
       <c r="E220" s="3"/>
       <c r="F220" s="1" t="s">
         <v>144</v>
@@ -4115,6 +4775,9 @@
       <c r="B221" s="1" t="s">
         <v>268</v>
       </c>
+      <c r="C221">
+        <v>221</v>
+      </c>
       <c r="E221" s="3"/>
       <c r="F221" s="1" t="s">
         <v>145</v>
@@ -4127,6 +4790,9 @@
       <c r="B222" s="1" t="s">
         <v>209</v>
       </c>
+      <c r="C222">
+        <v>222</v>
+      </c>
       <c r="E222" s="3"/>
       <c r="F222" s="1" t="s">
         <v>146</v>
@@ -4139,6 +4805,9 @@
       <c r="B223" s="1" t="s">
         <v>269</v>
       </c>
+      <c r="C223">
+        <v>223</v>
+      </c>
       <c r="E223" s="3"/>
       <c r="F223" s="1" t="s">
         <v>236</v>
@@ -4151,6 +4820,9 @@
       <c r="B224" s="1" t="s">
         <v>270</v>
       </c>
+      <c r="C224">
+        <v>224</v>
+      </c>
       <c r="E224" s="3"/>
       <c r="F224" s="1" t="s">
         <v>147</v>
@@ -4163,6 +4835,9 @@
       <c r="B225" s="1" t="s">
         <v>271</v>
       </c>
+      <c r="C225">
+        <v>225</v>
+      </c>
       <c r="E225" s="3"/>
       <c r="F225" s="1" t="s">
         <v>237</v>
@@ -4175,6 +4850,9 @@
       <c r="B226" s="1" t="s">
         <v>272</v>
       </c>
+      <c r="C226">
+        <v>226</v>
+      </c>
       <c r="E226" s="3"/>
       <c r="F226" s="1" t="s">
         <v>148</v>
@@ -4187,6 +4865,9 @@
       <c r="B227" s="1" t="s">
         <v>273</v>
       </c>
+      <c r="C227">
+        <v>227</v>
+      </c>
       <c r="E227" s="3"/>
       <c r="F227" s="1" t="s">
         <v>149</v>
@@ -4199,6 +4880,9 @@
       <c r="B228" s="1" t="s">
         <v>274</v>
       </c>
+      <c r="C228">
+        <v>228</v>
+      </c>
       <c r="E228" s="3"/>
       <c r="F228" s="1" t="s">
         <v>150</v>
@@ -4211,6 +4895,9 @@
       <c r="B229" s="1" t="s">
         <v>276</v>
       </c>
+      <c r="C229">
+        <v>229</v>
+      </c>
       <c r="E229" s="3"/>
       <c r="F229" s="1" t="s">
         <v>151</v>
@@ -4223,6 +4910,9 @@
       <c r="B230" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="C230">
+        <v>230</v>
+      </c>
       <c r="E230" s="3"/>
       <c r="F230" s="1" t="s">
         <v>152</v>
@@ -4235,6 +4925,9 @@
       <c r="B231" s="1" t="s">
         <v>211</v>
       </c>
+      <c r="C231">
+        <v>231</v>
+      </c>
       <c r="E231" s="3"/>
       <c r="F231" s="1" t="s">
         <v>62</v>
@@ -4247,6 +4940,9 @@
       <c r="B232" s="1" t="s">
         <v>278</v>
       </c>
+      <c r="C232">
+        <v>232</v>
+      </c>
       <c r="E232" s="3"/>
       <c r="F232" s="1" t="s">
         <v>153</v>
@@ -4259,6 +4955,9 @@
       <c r="B233" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="C233">
+        <v>233</v>
+      </c>
       <c r="E233" s="3"/>
       <c r="F233" s="1" t="s">
         <v>154</v>
@@ -4271,6 +4970,9 @@
       <c r="B234" s="1" t="s">
         <v>280</v>
       </c>
+      <c r="C234">
+        <v>234</v>
+      </c>
       <c r="E234" s="3"/>
       <c r="F234" s="1" t="s">
         <v>155</v>
@@ -4283,6 +4985,9 @@
       <c r="B235" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="C235">
+        <v>235</v>
+      </c>
       <c r="E235" s="3"/>
       <c r="F235" s="1" t="s">
         <v>156</v>
@@ -4295,6 +5000,9 @@
       <c r="B236" s="1" t="s">
         <v>213</v>
       </c>
+      <c r="C236">
+        <v>236</v>
+      </c>
       <c r="E236" s="3"/>
       <c r="F236" s="1" t="s">
         <v>157</v>
@@ -4307,6 +5015,9 @@
       <c r="B237" s="1" t="s">
         <v>214</v>
       </c>
+      <c r="C237">
+        <v>237</v>
+      </c>
       <c r="E237" s="3"/>
       <c r="F237" s="1" t="s">
         <v>158</v>
@@ -4319,6 +5030,9 @@
       <c r="B238" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="C238">
+        <v>238</v>
+      </c>
       <c r="E238" s="3"/>
       <c r="F238" s="1" t="s">
         <v>159</v>
@@ -4331,6 +5045,9 @@
       <c r="B239" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="C239">
+        <v>239</v>
+      </c>
       <c r="E239" s="3"/>
       <c r="F239" s="1" t="s">
         <v>160</v>
@@ -4343,6 +5060,9 @@
       <c r="B240" s="1" t="s">
         <v>248</v>
       </c>
+      <c r="C240">
+        <v>240</v>
+      </c>
       <c r="E240" s="3"/>
       <c r="F240" s="1" t="s">
         <v>161</v>
@@ -4355,6 +5075,9 @@
       <c r="B241" s="1" t="s">
         <v>281</v>
       </c>
+      <c r="C241">
+        <v>241</v>
+      </c>
       <c r="E241" s="3"/>
       <c r="F241" s="1" t="s">
         <v>63</v>
@@ -4367,6 +5090,9 @@
       <c r="B242" s="1" t="s">
         <v>282</v>
       </c>
+      <c r="C242">
+        <v>242</v>
+      </c>
       <c r="E242" s="3"/>
       <c r="F242" s="1" t="s">
         <v>162</v>
@@ -4379,6 +5105,9 @@
       <c r="B243" s="1" t="s">
         <v>283</v>
       </c>
+      <c r="C243">
+        <v>243</v>
+      </c>
       <c r="E243" s="3"/>
       <c r="F243" s="1" t="s">
         <v>163</v>
@@ -4391,6 +5120,9 @@
       <c r="B244" s="1" t="s">
         <v>284</v>
       </c>
+      <c r="C244">
+        <v>244</v>
+      </c>
       <c r="E244" s="3"/>
       <c r="F244" s="1" t="s">
         <v>214</v>
@@ -4403,6 +5135,9 @@
       <c r="B245" s="1" t="s">
         <v>218</v>
       </c>
+      <c r="C245">
+        <v>245</v>
+      </c>
       <c r="E245" s="3"/>
       <c r="F245" s="1" t="s">
         <v>64</v>
@@ -4415,6 +5150,9 @@
       <c r="B246" s="1" t="s">
         <v>286</v>
       </c>
+      <c r="C246">
+        <v>246</v>
+      </c>
       <c r="E246" s="3"/>
       <c r="F246" s="1" t="s">
         <v>65</v>
@@ -4427,6 +5165,9 @@
       <c r="B247" s="1" t="s">
         <v>287</v>
       </c>
+      <c r="C247">
+        <v>247</v>
+      </c>
       <c r="E247" s="3"/>
       <c r="F247" s="1" t="s">
         <v>204</v>
@@ -4438,6 +5179,9 @@
       </c>
       <c r="B248" s="1" t="s">
         <v>288</v>
+      </c>
+      <c r="C248">
+        <v>248</v>
       </c>
       <c r="E248" s="3"/>
       <c r="F248" s="1" t="s">
